--- a/Icons/subway.xlsx
+++ b/Icons/subway.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick.Grant\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryandougherty/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FDA1AC-3003-4039-9BF4-BC75F717074C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6A3494-BDEA-8145-ACC5-DF48F50B6CE3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{3BE42E33-BF49-4EFB-BBBF-EA02E3F1D165}"/>
+    <workbookView xWindow="14080" yWindow="660" windowWidth="25540" windowHeight="17500" xr2:uid="{3BE42E33-BF49-4EFB-BBBF-EA02E3F1D165}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="136">
   <si>
     <t>2,7</t>
   </si>
@@ -460,7 +454,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,6 +491,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -510,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -519,12 +543,23 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFECE55A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -833,16 +868,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F39A3D-0F7C-4327-8CC5-D5A6F92E0241}">
-  <dimension ref="A1:AO42"/>
+  <dimension ref="A1:AO112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="AR32" sqref="AR32"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.6640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:41" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" ht="25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -913,7 +948,7 @@
       <c r="AN2" s="1"/>
       <c r="AO2" s="1"/>
     </row>
-    <row r="3" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -1008,7 +1043,7 @@
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
     </row>
-    <row r="4" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
@@ -1019,19 +1054,19 @@
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -1051,22 +1086,22 @@
       <c r="Q4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="W4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="X4" s="2" t="s">
@@ -1092,13 +1127,13 @@
       <c r="AG4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AH4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AI4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="AK4" s="2" t="s">
@@ -1115,7 +1150,7 @@
       </c>
       <c r="AO4" s="1"/>
     </row>
-    <row r="5" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -1126,19 +1161,19 @@
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -1158,22 +1193,22 @@
       <c r="Q5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="U5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="W5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="X5" s="2" t="s">
@@ -1190,31 +1225,31 @@
       <c r="AD5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AE5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AF5" s="2" t="s">
+      <c r="AF5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AG5" s="2" t="s">
+      <c r="AG5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AH5" s="5" t="s">
+      <c r="AH5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AI5" s="5" t="s">
+      <c r="AI5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AJ5" s="5" t="s">
+      <c r="AJ5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AK5" s="2" t="s">
+      <c r="AK5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AL5" s="2" t="s">
+      <c r="AL5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AM5" s="2" t="s">
+      <c r="AM5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="AN5" s="2" t="s">
@@ -1222,7 +1257,7 @@
       </c>
       <c r="AO5" s="1"/>
     </row>
-    <row r="6" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -1235,19 +1270,19 @@
       <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -1271,22 +1306,22 @@
       <c r="Q6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="S6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="T6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="V6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="W6" s="6" t="s">
         <v>48</v>
       </c>
       <c r="X6" s="2" t="s">
@@ -1307,31 +1342,31 @@
       <c r="AD6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AE6" s="2" t="s">
+      <c r="AE6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AF6" s="2" t="s">
+      <c r="AF6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AG6" s="5" t="s">
+      <c r="AG6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AH6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AI6" s="2" t="s">
+      <c r="AI6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AJ6" s="2" t="s">
+      <c r="AJ6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AK6" s="5" t="s">
+      <c r="AK6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AL6" s="2" t="s">
+      <c r="AL6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AM6" s="2" t="s">
+      <c r="AM6" s="3" t="s">
         <v>50</v>
       </c>
       <c r="AN6" s="2" t="s">
@@ -1341,7 +1376,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -1354,7 +1389,7 @@
       <c r="D7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="6" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1366,7 +1401,7 @@
       <c r="H7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="6" t="s">
         <v>60</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -1390,22 +1425,22 @@
       <c r="Q7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="T7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="V7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="W7" s="3" t="s">
         <v>60</v>
       </c>
       <c r="X7" s="2" t="s">
@@ -1426,31 +1461,31 @@
       <c r="AD7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AE7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AF7" s="5" t="s">
+      <c r="AF7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AG7" s="2" t="s">
+      <c r="AG7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AH7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AI7" s="2" t="s">
+      <c r="AI7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AJ7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AK7" s="2" t="s">
+      <c r="AK7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AL7" s="5" t="s">
+      <c r="AL7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AM7" s="2" t="s">
+      <c r="AM7" s="3" t="s">
         <v>62</v>
       </c>
       <c r="AN7" s="2" t="s">
@@ -1460,7 +1495,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -1473,19 +1508,19 @@
       <c r="D8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="6" t="s">
         <v>72</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -1509,22 +1544,22 @@
       <c r="Q8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="T8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="U8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="V8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="W8" s="2" t="s">
+      <c r="W8" s="3" t="s">
         <v>72</v>
       </c>
       <c r="X8" s="2" t="s">
@@ -1545,31 +1580,31 @@
       <c r="AD8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AE8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AF8" s="5" t="s">
+      <c r="AF8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AG8" s="2" t="s">
+      <c r="AG8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AH8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AI8" s="2" t="s">
+      <c r="AI8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AJ8" s="2" t="s">
+      <c r="AJ8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AK8" s="2" t="s">
+      <c r="AK8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AL8" s="5" t="s">
+      <c r="AL8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AM8" s="2" t="s">
+      <c r="AM8" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AN8" s="2" t="s">
@@ -1579,7 +1614,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -1592,19 +1627,19 @@
       <c r="D9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="6" t="s">
         <v>84</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -1628,22 +1663,22 @@
       <c r="Q9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="T9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="U9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="V9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="W9" s="3" t="s">
         <v>84</v>
       </c>
       <c r="X9" s="2" t="s">
@@ -1664,31 +1699,31 @@
       <c r="AD9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AE9" s="2" t="s">
+      <c r="AE9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AF9" s="5" t="s">
+      <c r="AF9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AG9" s="2" t="s">
+      <c r="AG9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AH9" s="2" t="s">
+      <c r="AH9" s="3" t="s">
         <v>81</v>
       </c>
       <c r="AI9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AJ9" s="5" t="s">
+      <c r="AJ9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AK9" s="2" t="s">
+      <c r="AK9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AL9" s="5" t="s">
+      <c r="AL9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AM9" s="2" t="s">
+      <c r="AM9" s="3" t="s">
         <v>86</v>
       </c>
       <c r="AN9" s="2" t="s">
@@ -1698,7 +1733,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -1711,7 +1746,7 @@
       <c r="D10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="6" t="s">
         <v>92</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1723,7 +1758,7 @@
       <c r="H10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="6" t="s">
         <v>96</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -1747,22 +1782,22 @@
       <c r="Q10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="R10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="S10" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="T10" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="U10" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="V10" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="W10" s="6" t="s">
         <v>96</v>
       </c>
       <c r="X10" s="2" t="s">
@@ -1783,31 +1818,31 @@
       <c r="AD10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AE10" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AF10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AG10" s="5" t="s">
+      <c r="AG10" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AH10" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AI10" s="2" t="s">
+      <c r="AI10" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AJ10" s="5" t="s">
+      <c r="AJ10" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AK10" s="5" t="s">
+      <c r="AK10" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AL10" s="2" t="s">
+      <c r="AL10" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AM10" s="2" t="s">
+      <c r="AM10" s="3" t="s">
         <v>98</v>
       </c>
       <c r="AN10" s="2" t="s">
@@ -1817,7 +1852,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>101</v>
@@ -1825,10 +1860,10 @@
       <c r="C11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="6" t="s">
         <v>104</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1840,7 +1875,7 @@
       <c r="H11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="6" t="s">
         <v>108</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -1860,22 +1895,22 @@
       <c r="Q11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="R11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="S11" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="T11" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="U11" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="V11" s="4" t="s">
+      <c r="V11" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="W11" s="2" t="s">
+      <c r="W11" s="3" t="s">
         <v>108</v>
       </c>
       <c r="X11" s="2" t="s">
@@ -1892,31 +1927,31 @@
       <c r="AD11" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AE11" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AF11" s="2" t="s">
+      <c r="AF11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AG11" s="2" t="s">
+      <c r="AG11" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AH11" s="5" t="s">
+      <c r="AH11" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AI11" s="5" t="s">
+      <c r="AI11" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AJ11" s="2" t="s">
+      <c r="AJ11" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="AK11" s="5" t="s">
+      <c r="AK11" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="AL11" s="2" t="s">
+      <c r="AL11" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM11" s="2" t="s">
+      <c r="AM11" s="3" t="s">
         <v>110</v>
       </c>
       <c r="AN11" s="2" t="s">
@@ -1924,7 +1959,7 @@
       </c>
       <c r="AO11" s="1"/>
     </row>
-    <row r="12" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>112</v>
@@ -1999,31 +2034,31 @@
       <c r="AD12" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AE12" s="2" t="s">
+      <c r="AE12" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AF12" s="2" t="s">
+      <c r="AF12" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AG12" s="2" t="s">
+      <c r="AG12" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AH12" s="2" t="s">
+      <c r="AH12" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AI12" s="2" t="s">
+      <c r="AI12" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AJ12" s="2" t="s">
+      <c r="AJ12" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AK12" s="2" t="s">
+      <c r="AK12" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AL12" s="2" t="s">
+      <c r="AL12" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AM12" s="2" t="s">
+      <c r="AM12" s="3" t="s">
         <v>121</v>
       </c>
       <c r="AN12" s="2" t="s">
@@ -2031,7 +2066,7 @@
       </c>
       <c r="AO12" s="1"/>
     </row>
-    <row r="13" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
@@ -2120,7 +2155,7 @@
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
     </row>
-    <row r="14" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2191,7 +2226,7 @@
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
     </row>
-    <row r="16" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2262,7 +2297,7 @@
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
     </row>
-    <row r="17" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
@@ -2357,7 +2392,7 @@
       <c r="AN17" s="1"/>
       <c r="AO17" s="1"/>
     </row>
-    <row r="18" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>15</v>
@@ -2464,7 +2499,7 @@
       </c>
       <c r="AO18" s="1"/>
     </row>
-    <row r="19" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>16</v>
@@ -2472,25 +2507,25 @@
       <c r="C19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K19" s="2" t="s">
@@ -2504,31 +2539,31 @@
       <c r="P19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="Q19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="R19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S19" s="6" t="s">
+      <c r="S19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="T19" s="6" t="s">
+      <c r="T19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U19" s="6" t="s">
+      <c r="U19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="V19" s="6" t="s">
+      <c r="V19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W19" s="6" t="s">
+      <c r="W19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X19" s="3" t="s">
+      <c r="X19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y19" s="3" t="s">
+      <c r="Y19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Z19" s="2" t="s">
@@ -2571,17 +2606,17 @@
       </c>
       <c r="AO19" s="1"/>
     </row>
-    <row r="20" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -2599,7 +2634,7 @@
       <c r="I20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -2617,31 +2652,31 @@
       <c r="P20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="Q20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="R20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S20" s="6" t="s">
+      <c r="S20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="T20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="U20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="W20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="X20" s="3" t="s">
+      <c r="X20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Y20" s="3" t="s">
+      <c r="Y20" s="2" t="s">
         <v>50</v>
       </c>
       <c r="Z20" s="2" t="s">
@@ -2690,35 +2725,35 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="2" t="s">
         <v>61</v>
       </c>
       <c r="K21" s="2" t="s">
@@ -2736,31 +2771,31 @@
       <c r="P21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="Q21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="R21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="S21" s="6" t="s">
+      <c r="S21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="T21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="U21" s="2" t="s">
         <v>58</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="W21" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="X21" s="3" t="s">
+      <c r="X21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Y21" s="3" t="s">
+      <c r="Y21" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Z21" s="2" t="s">
@@ -2809,35 +2844,35 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="7" t="s">
         <v>71</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="2" t="s">
         <v>73</v>
       </c>
       <c r="K22" s="2" t="s">
@@ -2855,31 +2890,31 @@
       <c r="P22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="S22" s="6" t="s">
+      <c r="S22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="T22" s="6" t="s">
+      <c r="T22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="U22" s="6" t="s">
+      <c r="U22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="V22" s="6" t="s">
+      <c r="V22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="W22" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="X22" s="3" t="s">
+      <c r="X22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Y22" s="3" t="s">
+      <c r="Y22" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Z22" s="2" t="s">
@@ -2928,20 +2963,20 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="7" t="s">
         <v>80</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -2953,10 +2988,10 @@
       <c r="H23" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="2" t="s">
         <v>85</v>
       </c>
       <c r="K23" s="2" t="s">
@@ -2974,31 +3009,31 @@
       <c r="P23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="Q23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="R23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="S23" s="6" t="s">
+      <c r="S23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="T23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="U23" s="2" t="s">
         <v>82</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="W23" s="3" t="s">
+      <c r="W23" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="X23" s="3" t="s">
+      <c r="X23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Y23" s="3" t="s">
+      <c r="Y23" s="2" t="s">
         <v>86</v>
       </c>
       <c r="Z23" s="2" t="s">
@@ -3047,20 +3082,20 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="7" t="s">
         <v>92</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -3072,10 +3107,10 @@
       <c r="H24" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="2" t="s">
         <v>97</v>
       </c>
       <c r="K24" s="2" t="s">
@@ -3093,31 +3128,31 @@
       <c r="P24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="Q24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S24" s="6" t="s">
+      <c r="S24" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="T24" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="U24" s="2" t="s">
         <v>94</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="W24" s="3" t="s">
+      <c r="W24" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="X24" s="3" t="s">
+      <c r="X24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y24" s="3" t="s">
+      <c r="Y24" s="2" t="s">
         <v>98</v>
       </c>
       <c r="Z24" s="2" t="s">
@@ -3166,7 +3201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>101</v>
@@ -3174,25 +3209,25 @@
       <c r="C25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="7" t="s">
         <v>107</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="2" t="s">
         <v>109</v>
       </c>
       <c r="K25" s="2" t="s">
@@ -3206,31 +3241,31 @@
       <c r="P25" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="Q25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="R25" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="S25" s="6" t="s">
+      <c r="S25" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="T25" s="6" t="s">
+      <c r="T25" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="U25" s="6" t="s">
+      <c r="U25" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="V25" s="6" t="s">
+      <c r="V25" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="W25" s="6" t="s">
+      <c r="W25" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="X25" s="3" t="s">
+      <c r="X25" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Y25" s="3" t="s">
+      <c r="Y25" s="2" t="s">
         <v>110</v>
       </c>
       <c r="Z25" s="2" t="s">
@@ -3273,7 +3308,7 @@
       </c>
       <c r="AO25" s="1"/>
     </row>
-    <row r="26" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>112</v>
@@ -3284,19 +3319,19 @@
       <c r="D26" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="3" t="s">
         <v>119</v>
       </c>
       <c r="J26" s="2" t="s">
@@ -3313,31 +3348,31 @@
       <c r="P26" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="Q26" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="R26" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="S26" s="3" t="s">
+      <c r="S26" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="T26" s="3" t="s">
+      <c r="T26" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="U26" s="3" t="s">
+      <c r="U26" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="V26" s="3" t="s">
+      <c r="V26" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="W26" s="3" t="s">
+      <c r="W26" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="X26" s="3" t="s">
+      <c r="X26" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="Y26" s="3" t="s">
+      <c r="Y26" s="2" t="s">
         <v>121</v>
       </c>
       <c r="Z26" s="2" t="s">
@@ -3380,7 +3415,7 @@
       </c>
       <c r="AO26" s="1"/>
     </row>
-    <row r="27" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="s">
@@ -3469,7 +3504,7 @@
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
     </row>
-    <row r="28" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3540,7 +3575,7 @@
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
     </row>
-    <row r="30" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3611,7 +3646,7 @@
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
     </row>
-    <row r="31" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
@@ -3706,7 +3741,7 @@
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
     </row>
-    <row r="32" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>15</v>
@@ -3752,19 +3787,19 @@
       <c r="R32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S32" s="3" t="s">
+      <c r="S32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T32" s="3" t="s">
+      <c r="T32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U32" s="3" t="s">
+      <c r="U32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V32" s="3" t="s">
+      <c r="V32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W32" s="3" t="s">
+      <c r="W32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="X32" s="2" t="s">
@@ -3813,7 +3848,7 @@
       </c>
       <c r="AO32" s="1"/>
     </row>
-    <row r="33" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
         <v>16</v>
@@ -3821,25 +3856,25 @@
       <c r="C33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="7" t="s">
         <v>33</v>
       </c>
       <c r="K33" s="2" t="s">
@@ -3865,7 +3900,7 @@
       <c r="T33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="U33" s="6" t="s">
+      <c r="U33" s="8" t="s">
         <v>30</v>
       </c>
       <c r="V33" s="3" t="s">
@@ -3897,19 +3932,19 @@
       <c r="AG33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AH33" s="6" t="s">
+      <c r="AH33" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AI33" s="6" t="s">
+      <c r="AI33" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AJ33" s="6" t="s">
+      <c r="AJ33" s="8" t="s">
         <v>31</v>
       </c>
       <c r="AK33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AL33" s="2" t="s">
+      <c r="AL33" s="3" t="s">
         <v>33</v>
       </c>
       <c r="AM33" s="2" t="s">
@@ -3920,26 +3955,26 @@
       </c>
       <c r="AO33" s="1"/>
     </row>
-    <row r="34" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H34" s="3" t="s">
@@ -3948,7 +3983,7 @@
       <c r="I34" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="7" t="s">
         <v>49</v>
       </c>
       <c r="K34" s="2" t="s">
@@ -3975,13 +4010,13 @@
       <c r="S34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="T34" s="6" t="s">
+      <c r="T34" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="U34" s="3" t="s">
+      <c r="U34" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="V34" s="6" t="s">
+      <c r="V34" s="3" t="s">
         <v>47</v>
       </c>
       <c r="W34" s="3" t="s">
@@ -4011,7 +4046,7 @@
       <c r="AF34" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AG34" s="6" t="s">
+      <c r="AG34" s="8" t="s">
         <v>44</v>
       </c>
       <c r="AH34" s="3" t="s">
@@ -4023,10 +4058,10 @@
       <c r="AJ34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AK34" s="6" t="s">
+      <c r="AK34" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AL34" s="2" t="s">
+      <c r="AL34" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AM34" s="2" t="s">
@@ -4039,35 +4074,35 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="7" t="s">
         <v>61</v>
       </c>
       <c r="K35" s="2" t="s">
@@ -4091,19 +4126,19 @@
       <c r="R35" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="S35" s="6" t="s">
+      <c r="S35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="T35" s="2" t="s">
+      <c r="T35" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="U35" s="2" t="s">
+      <c r="U35" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="V35" s="2" t="s">
+      <c r="V35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="W35" s="6" t="s">
+      <c r="W35" s="3" t="s">
         <v>60</v>
       </c>
       <c r="X35" s="2" t="s">
@@ -4130,7 +4165,7 @@
       <c r="AF35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AG35" s="6" t="s">
+      <c r="AG35" s="3" t="s">
         <v>56</v>
       </c>
       <c r="AH35" s="3" t="s">
@@ -4142,10 +4177,10 @@
       <c r="AJ35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AK35" s="3" t="s">
+      <c r="AK35" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AL35" s="2" t="s">
+      <c r="AL35" s="3" t="s">
         <v>61</v>
       </c>
       <c r="AM35" s="2" t="s">
@@ -4158,35 +4193,35 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="7" t="s">
         <v>70</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="7" t="s">
         <v>73</v>
       </c>
       <c r="K36" s="2" t="s">
@@ -4210,19 +4245,19 @@
       <c r="R36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="S36" s="6" t="s">
+      <c r="S36" s="3" t="s">
         <v>68</v>
       </c>
       <c r="T36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="U36" s="3" t="s">
+      <c r="U36" s="8" t="s">
         <v>70</v>
       </c>
       <c r="V36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="W36" s="6" t="s">
+      <c r="W36" s="3" t="s">
         <v>72</v>
       </c>
       <c r="X36" s="2" t="s">
@@ -4249,7 +4284,7 @@
       <c r="AF36" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AG36" s="6" t="s">
+      <c r="AG36" s="3" t="s">
         <v>68</v>
       </c>
       <c r="AH36" s="3" t="s">
@@ -4258,13 +4293,13 @@
       <c r="AI36" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AJ36" s="3" t="s">
+      <c r="AJ36" s="8" t="s">
         <v>71</v>
       </c>
       <c r="AK36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AL36" s="2" t="s">
+      <c r="AL36" s="3" t="s">
         <v>73</v>
       </c>
       <c r="AM36" s="2" t="s">
@@ -4277,35 +4312,35 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="3" t="s">
         <v>82</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" s="7" t="s">
         <v>85</v>
       </c>
       <c r="K37" s="2" t="s">
@@ -4329,19 +4364,19 @@
       <c r="R37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="S37" s="6" t="s">
+      <c r="S37" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="T37" s="6" t="s">
+      <c r="T37" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="U37" s="6" t="s">
+      <c r="U37" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="V37" s="6" t="s">
+      <c r="V37" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="W37" s="6" t="s">
+      <c r="W37" s="3" t="s">
         <v>84</v>
       </c>
       <c r="X37" s="2" t="s">
@@ -4365,16 +4400,16 @@
       <c r="AE37" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AF37" s="3" t="s">
+      <c r="AF37" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="AG37" s="6" t="s">
+      <c r="AG37" s="3" t="s">
         <v>80</v>
       </c>
       <c r="AH37" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AI37" s="3" t="s">
+      <c r="AI37" s="8" t="s">
         <v>82</v>
       </c>
       <c r="AJ37" s="3" t="s">
@@ -4383,7 +4418,7 @@
       <c r="AK37" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AL37" s="2" t="s">
+      <c r="AL37" s="3" t="s">
         <v>85</v>
       </c>
       <c r="AM37" s="2" t="s">
@@ -4396,35 +4431,35 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="3" t="s">
         <v>94</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="7" t="s">
         <v>97</v>
       </c>
       <c r="K38" s="2" t="s">
@@ -4448,19 +4483,19 @@
       <c r="R38" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S38" s="6" t="s">
+      <c r="S38" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="T38" s="2" t="s">
+      <c r="T38" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="U38" s="2" t="s">
+      <c r="U38" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="V38" s="2" t="s">
+      <c r="V38" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="W38" s="6" t="s">
+      <c r="W38" s="3" t="s">
         <v>96</v>
       </c>
       <c r="X38" s="2" t="s">
@@ -4484,13 +4519,13 @@
       <c r="AE38" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AF38" s="3" t="s">
+      <c r="AF38" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AG38" s="6" t="s">
+      <c r="AG38" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AH38" s="3" t="s">
+      <c r="AH38" s="8" t="s">
         <v>93</v>
       </c>
       <c r="AI38" s="3" t="s">
@@ -4499,10 +4534,10 @@
       <c r="AJ38" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AK38" s="6" t="s">
+      <c r="AK38" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AL38" s="2" t="s">
+      <c r="AL38" s="3" t="s">
         <v>97</v>
       </c>
       <c r="AM38" s="2" t="s">
@@ -4515,7 +4550,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
         <v>101</v>
@@ -4523,25 +4558,25 @@
       <c r="C39" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="7" t="s">
         <v>109</v>
       </c>
       <c r="K39" s="2" t="s">
@@ -4558,22 +4593,22 @@
       <c r="Q39" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="R39" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="S39" s="6" t="s">
+      <c r="S39" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="T39" s="2" t="s">
+      <c r="T39" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="U39" s="2" t="s">
+      <c r="U39" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="V39" s="2" t="s">
+      <c r="V39" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="W39" s="6" t="s">
+      <c r="W39" s="3" t="s">
         <v>108</v>
       </c>
       <c r="X39" s="2" t="s">
@@ -4596,22 +4631,22 @@
       <c r="AF39" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AG39" s="3" t="s">
+      <c r="AG39" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AH39" s="6" t="s">
+      <c r="AH39" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="AI39" s="6" t="s">
+      <c r="AI39" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="AJ39" s="6" t="s">
+      <c r="AJ39" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AK39" s="3" t="s">
+      <c r="AK39" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="AL39" s="2" t="s">
+      <c r="AL39" s="3" t="s">
         <v>109</v>
       </c>
       <c r="AM39" s="2" t="s">
@@ -4622,7 +4657,7 @@
       </c>
       <c r="AO39" s="1"/>
     </row>
-    <row r="40" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
         <v>112</v>
@@ -4668,19 +4703,19 @@
       <c r="R40" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="S40" s="2" t="s">
+      <c r="S40" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="T40" s="2" t="s">
+      <c r="T40" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="U40" s="2" t="s">
+      <c r="U40" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="V40" s="2" t="s">
+      <c r="V40" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="W40" s="2" t="s">
+      <c r="W40" s="3" t="s">
         <v>119</v>
       </c>
       <c r="X40" s="2" t="s">
@@ -4729,7 +4764,7 @@
       </c>
       <c r="AO40" s="1"/>
     </row>
-    <row r="41" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2" t="s">
@@ -4818,7 +4853,7 @@
       <c r="AN41" s="1"/>
       <c r="AO41" s="1"/>
     </row>
-    <row r="42" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -4889,6 +4924,6751 @@
       <c r="AN42" s="1"/>
       <c r="AO42" s="1"/>
     </row>
+    <row r="44" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="1"/>
+    </row>
+    <row r="45" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1"/>
+    </row>
+    <row r="46" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO46" s="1"/>
+    </row>
+    <row r="47" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH47" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI47" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO47" s="1"/>
+    </row>
+    <row r="48" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG48" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH48" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO48" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T49" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="W49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG49" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH49" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI49" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK49" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO49" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W50" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="X50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z50" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD50" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG50" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK50" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN50" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO50" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="T51" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="U51" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="V51" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="W51" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="X51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA51" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE51" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG51" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH51" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI51" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ51" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK51" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO51" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="V52" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="W52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="X52" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z52" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG52" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH52" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI52" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ52" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK52" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL52" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN52" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO52" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="V53" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG53" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH53" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI53" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ53" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK53" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL53" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO53" s="1"/>
+    </row>
+    <row r="54" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V54" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="W54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="X54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG54" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH54" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI54" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ54" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK54" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO54" s="1"/>
+    </row>
+    <row r="55" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="V55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W55" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="X55" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF55" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH55" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK55" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL55" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="1"/>
+      <c r="AO55" s="1"/>
+    </row>
+    <row r="56" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="V56" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="W56" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH56" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI56" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ56" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK56" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL56" s="1"/>
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="1"/>
+      <c r="AO56" s="1"/>
+    </row>
+    <row r="58" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL58" s="1"/>
+      <c r="AM58" s="1"/>
+      <c r="AN58" s="1"/>
+      <c r="AO58" s="1"/>
+    </row>
+    <row r="59" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN59" s="1"/>
+      <c r="AO59" s="1"/>
+    </row>
+    <row r="60" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO60" s="1"/>
+    </row>
+    <row r="61" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R61" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S61" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T61" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="U61" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V61" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W61" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="X61" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z61" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG61" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH61" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI61" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ61" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK61" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN61" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO61" s="1"/>
+    </row>
+    <row r="62" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W62" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z62" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA62" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC62" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD62" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE62" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG62" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH62" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI62" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ62" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK62" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL62" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN62" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO62" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R63" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S63" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T63" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="U63" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V63" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="W63" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="X63" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y63" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD63" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE63" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG63" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH63" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI63" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ63" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK63" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM63" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO63" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R64" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="T64" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="U64" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="V64" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="W64" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="X64" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y64" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z64" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA64" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD64" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF64" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG64" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH64" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI64" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ64" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK64" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM64" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN64" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO64" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R65" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="S65" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="T65" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U65" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="V65" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X65" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC65" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE65" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG65" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH65" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI65" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ65" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK65" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO65" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U66" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y66" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z66" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA66" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC66" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE66" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG66" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH66" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI66" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ66" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK66" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL66" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM66" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN66" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO66" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="R67" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="S67" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="T67" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="U67" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="V67" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W67" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="X67" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y67" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z67" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE67" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG67" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH67" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI67" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ67" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK67" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL67" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM67" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN67" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO67" s="1"/>
+    </row>
+    <row r="68" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="U68" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V68" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="W68" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="X68" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y68" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE68" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF68" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG68" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH68" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI68" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ68" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK68" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL68" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM68" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO68" s="1"/>
+    </row>
+    <row r="69" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="S69" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U69" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="V69" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W69" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="X69" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF69" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG69" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH69" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI69" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ69" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK69" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL69" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="1"/>
+      <c r="AO69" s="1"/>
+    </row>
+    <row r="70" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="T70" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="U70" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="V70" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="W70" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH70" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI70" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ70" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK70" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="1"/>
+      <c r="AO70" s="1"/>
+    </row>
+    <row r="72" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+      <c r="AG72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL72" s="1"/>
+      <c r="AM72" s="1"/>
+      <c r="AN72" s="1"/>
+      <c r="AO72" s="1"/>
+    </row>
+    <row r="73" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AC73" s="1"/>
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN73" s="1"/>
+      <c r="AO73" s="1"/>
+    </row>
+    <row r="74" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T74" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V74" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG74" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH74" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ74" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO74" s="1"/>
+    </row>
+    <row r="75" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R75" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S75" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T75" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="U75" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="V75" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="W75" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="X75" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z75" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF75" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG75" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH75" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI75" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ75" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK75" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN75" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO75" s="1"/>
+    </row>
+    <row r="76" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W76" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y76" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z76" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA76" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC76" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD76" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE76" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF76" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG76" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH76" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI76" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ76" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK76" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL76" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM76" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN76" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO76" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R77" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S77" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T77" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="U77" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V77" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="W77" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X77" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y77" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z77" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC77" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD77" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE77" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF77" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG77" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH77" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI77" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ77" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK77" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL77" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM77" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN77" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO77" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R78" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="T78" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="U78" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="V78" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W78" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="X78" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y78" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z78" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA78" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC78" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD78" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE78" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF78" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG78" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH78" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI78" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ78" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK78" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM78" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN78" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO78" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I79" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R79" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="S79" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="T79" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="U79" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="V79" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X79" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y79" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z79" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA79" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD79" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE79" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF79" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG79" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH79" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI79" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ79" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK79" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL79" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM79" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN79" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO79" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I80" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R80" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S80" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="T80" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U80" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V80" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="W80" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="X80" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y80" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z80" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA80" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC80" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD80" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE80" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF80" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG80" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH80" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI80" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ80" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK80" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL80" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM80" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN80" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO80" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q81" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="S81" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T81" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="U81" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="V81" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="W81" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="X81" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y81" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z81" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE81" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF81" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG81" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH81" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI81" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ81" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK81" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL81" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM81" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN81" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO81" s="1"/>
+    </row>
+    <row r="82" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="R82" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="S82" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="U82" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V82" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="W82" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="X82" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y82" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z82" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF82" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG82" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH82" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI82" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ82" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK82" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL82" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM82" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN82" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO82" s="1"/>
+    </row>
+    <row r="83" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="R83" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="S83" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U83" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="V83" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W83" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="X83" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF83" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG83" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH83" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI83" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ83" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK83" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL83" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM83" s="1"/>
+      <c r="AN83" s="1"/>
+      <c r="AO83" s="1"/>
+    </row>
+    <row r="84" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="U84" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="V84" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="W84" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+      <c r="AA84" s="1"/>
+      <c r="AC84" s="1"/>
+      <c r="AD84" s="1"/>
+      <c r="AE84" s="1"/>
+      <c r="AF84" s="1"/>
+      <c r="AG84" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH84" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI84" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ84" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK84" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL84" s="1"/>
+      <c r="AM84" s="1"/>
+      <c r="AN84" s="1"/>
+      <c r="AO84" s="1"/>
+    </row>
+    <row r="86" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T86" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+      <c r="AC86" s="1"/>
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="1"/>
+      <c r="AF86" s="1"/>
+      <c r="AG86" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH86" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL86" s="1"/>
+      <c r="AM86" s="1"/>
+      <c r="AN86" s="1"/>
+      <c r="AO86" s="1"/>
+    </row>
+    <row r="87" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN87" s="1"/>
+      <c r="AO87" s="1"/>
+    </row>
+    <row r="88" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="B88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S88" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T88" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U88" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V88" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA88" s="1"/>
+      <c r="AC88" s="1"/>
+      <c r="AD88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF88" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG88" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH88" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI88" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ88" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO88" s="1"/>
+    </row>
+    <row r="89" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="B89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T89" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U89" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V89" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W89" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X89" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y89" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z89" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA89" s="1"/>
+      <c r="AC89" s="1"/>
+      <c r="AD89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF89" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG89" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH89" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI89" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ89" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK89" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL89" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM89" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN89" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO89" s="1"/>
+    </row>
+    <row r="90" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R90" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S90" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U90" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V90" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W90" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="X90" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y90" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z90" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA90" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC90" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD90" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE90" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF90" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG90" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH90" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI90" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ90" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK90" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL90" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM90" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN90" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO90" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q91" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R91" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="S91" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U91" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V91" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W91" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X91" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y91" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z91" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA91" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC91" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD91" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE91" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF91" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG91" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH91" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI91" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ91" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK91" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL91" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM91" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN91" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO91" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P92" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q92" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R92" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="S92" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T92" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U92" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="V92" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="W92" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="X92" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y92" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z92" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA92" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC92" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD92" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE92" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF92" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG92" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH92" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI92" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ92" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK92" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL92" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM92" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN92" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO92" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P93" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q93" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R93" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="S93" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T93" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U93" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="V93" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="W93" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="X93" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y93" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z93" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA93" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD93" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE93" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF93" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG93" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH93" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI93" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ93" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL93" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM93" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN93" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO93" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P94" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q94" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R94" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S94" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="T94" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="U94" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="V94" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="W94" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="X94" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z94" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA94" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC94" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD94" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE94" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF94" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG94" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH94" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI94" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ94" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK94" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL94" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN94" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO94" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1"/>
+      <c r="B95" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q95" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="R95" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="S95" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="T95" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="U95" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V95" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="W95" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="X95" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y95" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z95" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA95" s="1"/>
+      <c r="AC95" s="1"/>
+      <c r="AD95" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE95" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF95" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG95" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH95" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI95" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ95" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK95" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL95" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM95" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN95" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO95" s="1"/>
+    </row>
+    <row r="96" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1"/>
+      <c r="B96" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q96" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="R96" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="S96" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T96" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="U96" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V96" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="W96" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="X96" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y96" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z96" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA96" s="1"/>
+      <c r="AC96" s="1"/>
+      <c r="AD96" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE96" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF96" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG96" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH96" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI96" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ96" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK96" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL96" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM96" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN96" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO96" s="1"/>
+    </row>
+    <row r="97" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="R97" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="S97" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="T97" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U97" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="V97" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W97" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="X97" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
+      <c r="AC97" s="1"/>
+      <c r="AD97" s="1"/>
+      <c r="AE97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF97" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG97" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH97" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI97" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ97" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK97" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL97" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM97" s="1"/>
+      <c r="AN97" s="1"/>
+      <c r="AO97" s="1"/>
+    </row>
+    <row r="98" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="T98" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="U98" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="V98" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="W98" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AC98" s="1"/>
+      <c r="AD98" s="1"/>
+      <c r="AE98" s="1"/>
+      <c r="AF98" s="1"/>
+      <c r="AG98" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH98" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI98" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ98" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK98" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL98" s="1"/>
+      <c r="AM98" s="1"/>
+      <c r="AN98" s="1"/>
+      <c r="AO98" s="1"/>
+    </row>
+    <row r="100" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
+      <c r="AC100" s="1"/>
+      <c r="AD100" s="1"/>
+      <c r="AE100" s="1"/>
+      <c r="AF100" s="1"/>
+      <c r="AG100" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL100" s="1"/>
+      <c r="AM100" s="1"/>
+      <c r="AN100" s="1"/>
+      <c r="AO100" s="1"/>
+    </row>
+    <row r="101" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z101" s="1"/>
+      <c r="AA101" s="1"/>
+      <c r="AC101" s="1"/>
+      <c r="AD101" s="1"/>
+      <c r="AE101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN101" s="1"/>
+      <c r="AO101" s="1"/>
+    </row>
+    <row r="102" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1"/>
+      <c r="B102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R102" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S102" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T102" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U102" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V102" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X102" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y102" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA102" s="1"/>
+      <c r="AC102" s="1"/>
+      <c r="AD102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF102" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG102" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH102" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI102" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ102" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL102" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM102" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO102" s="1"/>
+    </row>
+    <row r="103" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
+      <c r="B103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q103" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R103" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S103" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T103" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U103" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V103" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W103" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X103" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y103" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z103" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA103" s="1"/>
+      <c r="AC103" s="1"/>
+      <c r="AD103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE103" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF103" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG103" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH103" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI103" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ103" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK103" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL103" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM103" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN103" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO103" s="1"/>
+    </row>
+    <row r="104" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q104" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R104" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S104" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T104" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U104" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V104" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W104" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X104" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y104" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z104" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA104" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC104" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE104" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF104" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG104" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH104" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI104" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ104" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK104" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL104" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM104" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN104" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO104" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="105" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P105" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q105" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R105" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S105" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T105" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U105" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V105" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W105" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X105" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y105" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z105" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA105" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC105" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD105" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE105" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF105" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG105" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH105" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI105" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ105" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK105" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL105" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM105" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN105" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO105" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P106" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q106" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R106" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S106" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T106" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U106" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="V106" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="W106" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="X106" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y106" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z106" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA106" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD106" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE106" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF106" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG106" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH106" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI106" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ106" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK106" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL106" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM106" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN106" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO106" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P107" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q107" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R107" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S107" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T107" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U107" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="V107" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="W107" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="X107" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y107" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z107" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA107" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC107" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD107" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE107" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF107" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG107" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH107" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI107" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ107" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK107" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL107" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM107" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN107" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO107" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="108" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P108" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q108" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R108" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S108" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T108" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="U108" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="V108" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="W108" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="X108" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y108" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z108" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA108" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC108" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD108" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE108" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF108" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG108" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH108" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI108" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ108" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK108" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL108" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM108" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN108" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO108" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1"/>
+      <c r="B109" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q109" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="R109" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="S109" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="T109" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="U109" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="V109" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="W109" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="X109" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y109" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z109" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA109" s="1"/>
+      <c r="AC109" s="1"/>
+      <c r="AD109" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE109" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF109" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG109" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH109" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI109" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ109" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK109" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL109" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM109" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN109" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO109" s="1"/>
+    </row>
+    <row r="110" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1"/>
+      <c r="B110" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q110" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="R110" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="S110" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T110" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="U110" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V110" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="W110" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="X110" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y110" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z110" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA110" s="1"/>
+      <c r="AC110" s="1"/>
+      <c r="AD110" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE110" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF110" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG110" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH110" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI110" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ110" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK110" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL110" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM110" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN110" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO110" s="1"/>
+    </row>
+    <row r="111" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="R111" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="S111" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="T111" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U111" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="V111" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W111" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="X111" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y111" s="1"/>
+      <c r="Z111" s="1"/>
+      <c r="AA111" s="1"/>
+      <c r="AC111" s="1"/>
+      <c r="AD111" s="1"/>
+      <c r="AE111" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF111" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG111" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH111" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI111" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ111" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK111" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL111" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM111" s="1"/>
+      <c r="AN111" s="1"/>
+      <c r="AO111" s="1"/>
+    </row>
+    <row r="112" spans="1:41" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="T112" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="U112" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="V112" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="W112" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="X112" s="1"/>
+      <c r="Y112" s="1"/>
+      <c r="Z112" s="1"/>
+      <c r="AA112" s="1"/>
+      <c r="AC112" s="1"/>
+      <c r="AD112" s="1"/>
+      <c r="AE112" s="1"/>
+      <c r="AF112" s="1"/>
+      <c r="AG112" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH112" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI112" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ112" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK112" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL112" s="1"/>
+      <c r="AM112" s="1"/>
+      <c r="AN112" s="1"/>
+      <c r="AO112" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
